--- a/biology/Neurosciences/Martin_Bernhardt/Martin_Bernhardt.xlsx
+++ b/biology/Neurosciences/Martin_Bernhardt/Martin_Bernhardt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin Bernhardt, né le 10 avril 1844 à Potsdam et mort le 17 mars 1915 à Berlin est un médecin neurologue et neuropathologiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1867, il est reçu docteur en médecine de l'université de Berlin, où il a été l'élève de Rudolf Virchow (1821-1902) et de Ludwig Traube (1818-1878). I est ensuite assistant de Ernst Viktor von Leyden (1832-1910) à la clinique universitaire de l'université de Königsberg, puis à l'hôpital de la Charité de Berlin sous l'autorité de Carl Westphal (1833-1890). Après son service militaire et la guerre franco-prussienne, il se spécialise en neuropathologie à Berlin, où en 1882, il obtient le titre de professeur extraordinaire.
 Bernhardt a publié quelques ouvrages sur les maladies neurologiques et l'électrothérapie. En 1885, il devient rédacteur en chef du journal Centralblatt für die Medizinischen Wissenschaften.
@@ -543,7 +557,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paresthésie de Bernhardt-Roth (de) : autre nom de la méralgie paresthésique (de), qu'il a décrite avec le neuropathologiste russe Vladimir Karlovitch Roth (1848-1916), une affection commune traduisant l'atteinte du nerf fémoro-cutané.
 Syndrome de Vulpian-Bernhardt : forme clinique de la sclérose latérale amyotrophique touchant préférentiellement la ceinture scapuaire.
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Die Sensibilitätsverhältnisse der Haut; 1873
 (de) Beiträge zurSymptomatologie und Diagnostik der Hirngeschwülste; 1881
